--- a/07-design-dynamic/Weapons-James-Gibson-Bond.xlsx
+++ b/07-design-dynamic/Weapons-James-Gibson-Bond.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5783\09-design-dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5784\07-design-dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83D499-03FA-4B7B-B432-E6E895EFE021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E57DC-A21C-4543-9682-C7B3C3129D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -375,7 +375,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -523,7 +523,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -671,7 +671,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -819,7 +819,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -967,7 +967,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="he-IL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1031,28 +1031,28 @@
                 <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>6.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>6.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9999999999999978</c:v>
+                  <c:v>3.3333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9999999999999978</c:v>
+                  <c:v>3.3333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.000000000000002</c:v>
+                  <c:v>1.6666666666666698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.000000000000002</c:v>
+                  <c:v>1.6666666666666698</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1120,7 +1120,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38845384"/>
@@ -1168,7 +1168,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39127026"/>
@@ -1203,7 +1203,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1272,7 +1272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1606,14 +1606,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.47265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.62890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7890625" customWidth="1"/>
     <col min="4" max="4" width="12.3671875" customWidth="1"/>
     <col min="5" max="5" width="5.26171875" style="2" customWidth="1"/>
     <col min="6" max="15" width="5.3125" customWidth="1"/>
@@ -1761,11 +1762,11 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Z7" si="0">F3*$D3*$C3</f>
+        <f>F3*$D3*$C3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="R3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q3:Z7" si="0">G3*$D3*$C3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="S3" s="10">
@@ -2068,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2105,35 +2106,35 @@
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="0"/>
-        <v>4.0000000000000018</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="0"/>
-        <v>4.0000000000000018</v>
+        <v>6.6666666666666696</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7" s="10">
         <f t="shared" si="0"/>
-        <v>1.9999999999999978</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="V7" s="10">
         <f t="shared" si="0"/>
-        <v>1.9999999999999978</v>
+        <v>3.3333333333333299</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="0"/>
-        <v>1.000000000000002</v>
+        <v>1.6666666666666698</v>
       </c>
       <c r="X7" s="10">
         <f t="shared" si="0"/>
-        <v>1.000000000000002</v>
+        <v>1.6666666666666698</v>
       </c>
       <c r="Y7" s="10">
         <f t="shared" si="0"/>
